--- a/public/preprocessing/@Tiorida123.xlsx
+++ b/public/preprocessing/@Tiorida123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17844</v>
+        <v>26517</v>
       </c>
       <c r="C2" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>amin</t>
+          <t>tenggelam bak kapak selam</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['tenggelam', 'bak', 'kapak', 'selam']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tenggelam', 'bak', 'kapak', 'selam']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['tenggelam', 'bak', 'kapak', 'selam']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['tenggelam', 'bak', 'kapak', 'selam']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17845</v>
+        <v>26518</v>
       </c>
       <c r="C3" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>minim prestasi jadi terpaksa bangun prasasti di masa pandemi covid ini prihatin</t>
+          <t>demokrasi dirampok sm kucing garong</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['minim', 'prestasi', 'jadi', 'terpaksa', 'bangun', 'prasasti', 'di', 'masa', 'pandemi', 'covid', 'ini', 'prihatin']</t>
+          <t>['demokrasi', 'dirampok', 'sm', 'kucing', 'garong']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['demokrasi', 'dirampok', 'sama', 'kucing', 'garong']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['minim', 'prestasi', 'terpaksa', 'bangun', 'prasasti', 'pandemi', 'covid', 'prihatin']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['minim', 'prestasi', 'paksa', 'bangun', 'prasasti', 'pandemi', 'covid', 'prihatin']</t>
+          <t>['demokrasi', 'dirampok', 'kucing', 'garong']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'rampok', 'kucing', 'garong']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17846</v>
+        <v>26519</v>
       </c>
       <c r="C4" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nah itu ygsedang ngomong sedang buzz maka dia adlh buzzer</t>
+          <t>god bless pak</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['nah', 'itu', 'ygsedang', 'ngomong', 'sedang', 'buzz', 'maka', 'dia', 'adlh', 'buzzer']</t>
+          <t>['god', 'bless', 'pak']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['god', 'bless', 'pak']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ygsedang', 'ngomong', 'buzz', 'adlh', 'buzzer']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['ygsedang', 'ngomong', 'buzz', 'adlh', 'buzzer']</t>
+          <t>['god', 'bless']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['god', 'bless']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17847</v>
+        <v>26520</v>
       </c>
       <c r="C5" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jgn sampai ada propinsi daerah khusus org edan</t>
+          <t>ri moso ia panggil si pitung</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['jgn', 'sampai', 'ada', 'propinsi', 'daerah', 'khusus', 'org', 'edan']</t>
+          <t>['ri', 'moso', 'ia', 'panggil', 'si', 'pitung']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ri', 'moso', 'ia', 'panggil', 'sih', 'pitung']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['propinsi', 'daerah', 'khusus', 'org', 'edan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['propinsi', 'daerah', 'khusus', 'org', 'edan']</t>
+          <t>['ri', 'moso', 'panggil', 'pitung']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['ri', 'moso', 'panggil', 'pitung']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17848</v>
+        <v>26521</v>
       </c>
       <c r="C6" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>oknumnya layak dihukum mati krn dia sdh menikmati hasil mejual senjata utk membunuh para angota tni polr</t>
+          <t>boljug</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['oknumnya', 'layak', 'dihukum', 'mati', 'krn', 'dia', 'sdh', 'menikmati', 'hasil', 'mejual', 'senjata', 'utk', 'membunuh', 'para', 'angota', 'tni', 'polr']</t>
+          <t>['boljug']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['boljug']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['oknumnya', 'layak', 'dihukum', 'mati', 'menikmati', 'hasil', 'mejual', 'senjata', 'membunuh', 'angota', 'tni', 'polr']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['oknum', 'layak', 'hukum', 'mati', 'nikmat', 'hasil', 'mejual', 'senjata', 'bunuh', 'angota', 'tni', 'polr']</t>
+          <t>['boljug']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['boljug']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17849</v>
+        <v>26522</v>
       </c>
       <c r="C7" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>dari wakil rakyat jadi pemimpin rakyat</t>
+          <t>maju</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['dari', 'wakil', 'rakyat', 'jadi', 'pemimpin', 'rakyat']</t>
+          <t>['maju']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['maju']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['wakil', 'rakyat', 'pemimpin', 'rakyat']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['wakil', 'rakyat', 'pimpin', 'rakyat']</t>
+          <t>['maju']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['maju']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17850</v>
+        <v>26523</v>
       </c>
       <c r="C8" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hidup</t>
+          <t>kalau itu keinginan rakyat yg kebakaran kumis para politisinya rakyat senang saja</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['hidup']</t>
+          <t>['kalau', 'itu', 'keinginan', 'rakyat', 'yg', 'kebakaran', 'kumis', 'para', 'politisinya', 'rakyat', 'senang', 'saja']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kalau', 'itu', 'keinginan', 'rakyat', 'yang', 'kebakaran', 'kumis', 'para', 'politisinya', 'rakyat', 'senang', 'saja']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['hidup']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['hidup']</t>
+          <t>['rakyat', 'kebakaran', 'kumis', 'politisinya', 'rakyat', 'senang']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['rakyat', 'bakar', 'kumis', 'politis', 'rakyat', 'senang']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17851</v>
+        <v>26524</v>
       </c>
       <c r="C9" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dasar emang tabung melon licik sempurna</t>
+          <t>namanya juga keberpihakan bang berpihak sm yg punya duit</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['dasar', 'emang', 'tabung', 'melon', 'licik', 'sempurna']</t>
+          <t>['namanya', 'juga', 'keberpihakan', 'bang', 'berpihak', 'sm', 'yg', 'punya', 'duit']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['namanya', 'juga', 'keberpihakan', 'bang', 'berpihak', 'sama', 'yang', 'punya', 'duit']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['dasar', 'emang', 'tabung', 'melon', 'licik', 'sempurna']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['dasar', 'emang', 'tabung', 'melon', 'licik', 'sempurna']</t>
+          <t>['namanya', 'keberpihakan', 'bang', 'berpihak', 'duit']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['nama', 'pihak', 'bang', 'pihak', 'duit']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17852</v>
+        <v>26525</v>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>bahagianya mendapat penghargaan selamat</t>
+          <t>mvllestari biasanya apa yg ditakutkan bakal terjadi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['bahagianya', 'mendapat', 'penghargaan', 'selamat']</t>
+          <t>['mvllestari', 'biasanya', 'apa', 'yg', 'ditakutkan', 'bakal', 'terjadi']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mvllestari', 'biasanya', 'apa', 'yang', 'ditakutkan', 'bakal', 'terjadi']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['bahagianya', 'penghargaan', 'selamat']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['bahagia', 'harga', 'selamat']</t>
+          <t>['mvllestari', 'ditakutkan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['mvllestari', 'takut']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17853</v>
+        <v>26526</v>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bandel atau tdk paham sdh ditetapkan sbg ormas terlarang masih berani muncul yg bandel dalangnya yg tdk paham pion suruhannya</t>
+          <t>chintata leoaskab sesaknya dgn teriak ditutupi bantal kali yah biar org ga merasa terganggu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['bandel', 'atau', 'tdk', 'paham', 'sdh', 'ditetapkan', 'sbg', 'ormas', 'terlarang', 'masih', 'berani', 'muncul', 'yg', 'bandel', 'dalangnya', 'yg', 'tdk', 'paham', 'pion', 'suruhannya']</t>
+          <t>['chintata', 'leoaskab', 'sesaknya', 'dgn', 'teriak', 'ditutupi', 'bantal', 'kali', 'yah', 'biar', 'org', 'ga', 'merasa', 'terganggu']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['chintata', 'leoaskab', 'sesaknya', 'dengan', 'teriak', 'ditutupi', 'bantal', 'kali', 'ya', 'biar', 'orang', 'tidak', 'merasa', 'terganggu']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bandel', 'paham', 'ditetapkan', 'sbg', 'ormas', 'terlarang', 'berani', 'muncul', 'bandel', 'dalangnya', 'paham', 'pion', 'suruhannya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bandel', 'paham', 'tetap', 'sbg', 'ormas', 'larang', 'berani', 'muncul', 'bandel', 'dalang', 'paham', 'pion', 'suruh']</t>
+          <t>['chintata', 'leoaskab', 'sesaknya', 'teriak', 'ditutupi', 'bantal', 'kali', 'orang', 'terganggu']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['chintata', 'leoaskab', 'sesak', 'teriak', 'tutup', 'bantal', 'kali', 'orang', 'ganggu']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17854</v>
+        <v>26527</v>
       </c>
       <c r="C12" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kafirnw propessor bocor pak hasto tdk ada menyebut dki atau pemimpinnya</t>
+          <t>mvllestari love</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['kafirnw', 'propessor', 'bocor', 'pak', 'hasto', 'tdk', 'ada', 'menyebut', 'dki', 'atau', 'pemimpinnya']</t>
+          <t>['mvllestari', 'love']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mvllestari', 'love']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kafirnw', 'propessor', 'bocor', 'hasto', 'menyebut', 'dki', 'pemimpinnya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kafirnw', 'propessor', 'bocor', 'hasto', 'sebut', 'dki', 'pimpin']</t>
+          <t>['mvllestari', 'love']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['mvllestari', 'love']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17855</v>
+        <v>26528</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>toleransi sesama wong edan</t>
+          <t>btp sebaiknya spt itu spy pembangunannya berkelanjutan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['toleransi', 'sesama', 'wong', 'edan']</t>
+          <t>['btp', 'sebaiknya', 'spt', 'itu', 'spy', 'pembangunannya', 'berkelanjutan']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ahok', 'sebaiknya', 'surat, pemberitahuan, tahunan', 'itu', 'supaya', 'pembangunannya', 'berkelanjutan']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['toleransi', 'edan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['toleransi', 'edan']</t>
+          <t>['ahok', 'surat, pemberitahuan, tahunan', 'pembangunannya', 'berkelanjutan']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ahok', 'surat pemberitahuan tahun', 'bangun', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17856</v>
+        <v>26529</v>
       </c>
       <c r="C14" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>yg kiri semoga badai cepat berlalu kanan selamat datang ibu</t>
+          <t>teknis pengadaan lahan rmh dp nol rupah sama dgn beli lem aibon jangan lupa cuci tangan dan pakai masker</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['yg', 'kiri', 'semoga', 'badai', 'cepat', 'berlalu', 'kanan', 'selamat', 'datang', 'ibu']</t>
+          <t>['teknis', 'pengadaan', 'lahan', 'rmh', 'dp', 'nol', 'rupah', 'sama', 'dgn', 'beli', 'lem', 'aibon', 'jangan', 'lupa', 'cuci', 'tangan', 'dan', 'pakai', 'masker']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['teknis', 'pengadaan', 'lahan', 'rumah', 'uang, muka', 'nol', 'rupah', 'sama', 'dengan', 'beli', 'lem', 'aibon', 'jangan', 'lupa', 'cuci', 'tangan', 'dan', 'pakai', 'masker']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kiri', 'semoga', 'badai', 'cepat', 'kanan', 'selamat']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kiri', 'moga', 'badai', 'cepat', 'kanan', 'selamat']</t>
+          <t>['teknis', 'pengadaan', 'lahan', 'rumah', 'uang, muka', 'nol', 'rupah', 'beli', 'lem', 'aibon', 'lupa', 'cuci', 'tangan', 'pakai', 'masker']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['teknis', 'ada', 'lahan', 'rumah', 'uang muka', 'nol', 'rupah', 'beli', 'lem', 'aibon', 'lupa', 'cuci', 'tangan', 'pakai', 'masker']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17857</v>
+        <v>26530</v>
       </c>
       <c r="C15" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>dari ujung rambut ke ujung kaki ditutupin isinya apa ya penampakannya spt dlm video</t>
+          <t>avp semua tantangan beliau hadapi dgn hati yg tenang dan optimisme yg tinggi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['dari', 'ujung', 'rambut', 'ke', 'ujung', 'kaki', 'ditutupin', 'isinya', 'apa', 'ya', 'penampakannya', 'spt', 'dlm', 'video']</t>
+          <t>['avp', 'semua', 'tantangan', 'beliau', 'hadapi', 'dgn', 'hati', 'yg', 'tenang', 'dan', 'optimisme', 'yg', 'tinggi']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['avp', 'semua', 'tantangan', 'beliau', 'hadapi', 'dengan', 'hati', 'yang', 'tenang', 'dan', 'optimisme', 'yang', 'tinggi']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ujung', 'rambut', 'ujung', 'kaki', 'ditutupin', 'isinya', 'penampakannya', 'spt', 'dlm', 'video']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ujung', 'rambut', 'ujung', 'kaki', 'ditutupin', 'isi', 'tampak', 'spt', 'dlm', 'video']</t>
+          <t>['avp', 'tantangan', 'beliau', 'hadapi', 'hati', 'tenang', 'optimisme']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['avp', 'tantang', 'beliau', 'hadap', 'hati', 'tenang', 'optimisme']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17858</v>
+        <v>26531</v>
       </c>
       <c r="C16" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>proud of you terpesona</t>
+          <t>mae mvllestari id nixon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['proud', 'of', 'you', 'terpesona']</t>
+          <t>['mae', 'mvllestari', 'id', 'nixon']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['mae', 'mvllestari', 'id', 'nixon']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['proud', 'of', 'you', 'terpesona']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['proud', 'of', 'you', 'pesona']</t>
+          <t>['mae', 'mvllestari', 'id', 'nixon']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['mae', 'mvllestari', 'id', 'nixon']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17859</v>
+        <v>26532</v>
       </c>
       <c r="C17" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>boten noponopo to mbah yg penting kaya akan kebaikan hati dan syukur kpd tuhan</t>
+          <t>akibat aturan yg tdk jelas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['boten', 'noponopo', 'to', 'mbah', 'yg', 'penting', 'kaya', 'akan', 'kebaikan', 'hati', 'dan', 'syukur', 'kpd', 'tuhan']</t>
+          <t>['akibat', 'aturan', 'yg', 'tdk', 'jelas']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['akibat', 'aturan', 'yang', 'tidak', 'jelas']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['boten', 'noponopo', 'to', 'mbah', 'kaya', 'kebaikan', 'hati', 'syukur', 'kpd', 'tuhan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['boten', 'noponopo', 'to', 'mbah', 'kaya', 'baik', 'hati', 'syukur', 'kpd', 'tuhan']</t>
+          <t>['akibat', 'aturan']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['akibat', 'atur']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17860</v>
+        <v>26533</v>
       </c>
       <c r="C18" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> amin</t>
+          <t>aturan banci</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['aturan', 'banci']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['aturan', 'banci']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['aturan', 'banci']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['atur', 'banci']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17861</v>
+        <v>26534</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>membahas airbanjir kagak ada habisnya krn sumber utamanya dari langit bagaimana kesiapan anda utk menghadapinya</t>
+          <t>audit dana desanya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['membahas', 'airbanjir', 'kagak', 'ada', 'habisnya', 'krn', 'sumber', 'utamanya', 'dari', 'langit', 'bagaimana', 'kesiapan', 'anda', 'utk', 'menghadapinya']</t>
+          <t>['audit', 'dana', 'desanya']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['audit', 'dana', 'desanya']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['membahas', 'airbanjir', 'kagak', 'habisnya', 'sumber', 'utamanya', 'langit', 'kesiapan', 'menghadapinya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['bahas', 'airbanjir', 'kagak', 'habis', 'sumber', 'utama', 'langit', 'kesiap', 'hadap']</t>
+          <t>['audit', 'dana', 'desanya']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['audit', 'dana', 'desa']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17862</v>
+        <v>26535</v>
       </c>
       <c r="C20" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>zz mksh bang</t>
+          <t>kita butuh transparansi dan keseriusan kpk menangani kasus ini maupun yg lainnya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['zz', 'mksh', 'bang']</t>
+          <t>['kita', 'butuh', 'transparansi', 'dan', 'keseriusan', 'kpk', 'menangani', 'kasus', 'ini', 'maupun', 'yg', 'lainnya']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kita', 'butuh', 'transparansi', 'dan', 'keseriusan', 'komisi, pemberantasan, korupsi', 'menangani', 'kasus', 'ini', 'maupun', 'yang', 'lainnya']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['zz', 'mksh', 'bang']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['zz', 'mksh', 'bang']</t>
+          <t>['butuh', 'transparansi', 'keseriusan', 'komisi, pemberantasan, korupsi', 'menangani']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['butuh', 'transparansi', 'serius', 'komisi berantas korupsi', 'tangan']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17863</v>
+        <v>26536</v>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>nakula lagi cari goloknye bang japar kebawa ame arus kali krukut</t>
+          <t>go</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['nakula', 'lagi', 'cari', 'goloknye', 'bang', 'japar', 'kebawa', 'ame', 'arus', 'kali', 'krukut']</t>
+          <t>['go']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['go']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['nakula', 'cari', 'goloknye', 'bang', 'japar', 'kebawa', 'ame', 'arus', 'kali', 'krukut']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['nakula', 'cari', 'goloknye', 'bang', 'japar', 'bawa', 'ame', 'arus', 'kali', 'krukut']</t>
+          <t>['go']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['go']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17864</v>
+        <v>26537</v>
       </c>
       <c r="C22" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>inor yg benar dari langit mas</t>
+          <t>berbuat baik kpd org yg jahat sama kita samadengan menaruh bara api di atas kepalanya keb</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['inor', 'yg', 'benar', 'dari', 'langit', 'mas']</t>
+          <t>['berbuat', 'baik', 'kpd', 'org', 'yg', 'jahat', 'sama', 'kita', 'samadengan', 'menaruh', 'bara', 'api', 'di', 'atas', 'kepalanya', 'keb']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['berbuat', 'baik', 'kepada', 'orang', 'yang', 'jahat', 'sama', 'kita', 'samadengan', 'menaruh', 'bara', 'api', 'di', 'atas', 'kepalanya', 'keb']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['inor', 'langit', 'mas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['inor', 'langit', 'mas']</t>
+          <t>['berbuat', 'orang', 'jahat', 'samadengan', 'menaruh', 'bara', 'api', 'kepalanya', 'keb']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['buat', 'orang', 'jahat', 'samadengan', 'taruh', 'bara', 'api', 'kepala', 'keb']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17865</v>
+        <v>26538</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>zz terimakasih bang utk atensinya</t>
+          <t>dia makan uang rakyat tetapi arogan tidak layak layakna dipecat dan usut tuntas kasusnya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['zz', 'terimakasih', 'bang', 'utk', 'atensinya']</t>
+          <t>['dia', 'makan', 'uang', 'rakyat', 'tetapi', 'arogan', 'tidak', 'layak', 'layakna', 'dipecat', 'dan', 'usut', 'tuntas', 'kasusnya']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['dia', 'makan', 'uang', 'rakyat', 'tetapi', 'arogan', 'tidak', 'layak', 'layakna', 'dipecat', 'dan', 'usut', 'tuntas', 'kasusnya']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['zz', 'terimakasih', 'bang', 'atensinya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['zz', 'terimakasih', 'bang', 'atensi']</t>
+          <t>['makan', 'uang', 'rakyat', 'arogan', 'layak', 'layakna', 'dipecat', 'usut', 'tuntas', 'kasusnya']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['makan', 'uang', 'rakyat', 'arogan', 'layak', 'layakna', 'pecat', 'usut', 'tuntas', 'kasus']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17866</v>
+        <v>26539</v>
       </c>
       <c r="C24" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>zz paling tepat kiriman dari langit</t>
+          <t>kuntadhi taunya menata kata menjadi sebuah kalimat yg dapat membuai warganya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['zz', 'paling', 'tepat', 'kiriman', 'dari', 'langit']</t>
+          <t>['kuntadhi', 'taunya', 'menata', 'kata', 'menjadi', 'sebuah', 'kalimat', 'yg', 'dapat', 'membuai', 'warganya']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kuntadhi', 'taunya', 'menata', 'kata', 'menjadi', 'sebuah', 'kalimat', 'yang', 'dapat', 'membuai', 'warganya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['zz', 'kiriman', 'langit']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['zz', 'kirim', 'langit']</t>
+          <t>['kuntadhi', 'taunya', 'menata', 'kalimat', 'membuai', 'warganya']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'tau', 'tata', 'kalimat', 'buai', 'warga']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17867</v>
+        <v>26540</v>
       </c>
       <c r="C25" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pengen lihat brp banyak pemuja anies katakanlah yg benar</t>
+          <t>wanita indonesia adlh wanita bermartabat</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['pengen', 'lihat', 'brp', 'banyak', 'pemuja', 'anies', 'katakanlah', 'yg', 'benar']</t>
+          <t>['wanita', 'indonesia', 'adlh', 'wanita', 'bermartabat']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['wanita', 'indonesia', 'adalah', 'wanita', 'bermartabat']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['pengen', 'lihat', 'brp', 'pemuja', 'anies']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['ken', 'lihat', 'brp', 'puja', 'anies']</t>
+          <t>['wanita', 'indonesia', 'wanita', 'bermartabat']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['wanita', 'indonesia', 'wanita', 'martabat']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17868</v>
+        <v>26541</v>
       </c>
       <c r="C26" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>thn khilaf</t>
+          <t>usut tuntas tidak dibutuhkan pelayan masyarakat yg arogan spt ini</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['thn', 'khilaf']</t>
+          <t>['usut', 'tuntas', 'tidak', 'dibutuhkan', 'pelayan', 'masyarakat', 'yg', 'arogan', 'spt', 'ini']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['usut', 'tuntas', 'tidak', 'dibutuhkan', 'pelayan', 'masyarakat', 'yang', 'arogan', 'surat, pemberitahuan, tahunan', 'ini']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['thn', 'khilaf']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['thn', 'khilaf']</t>
+          <t>['usut', 'tuntas', 'dibutuhkan', 'pelayan', 'masyarakat', 'arogan', 'surat, pemberitahuan, tahunan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['usut', 'tuntas', 'butuh', 'layan', 'masyarakat', 'arogan', 'surat pemberitahuan tahun']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17869</v>
+        <v>26542</v>
       </c>
       <c r="C27" t="n">
-        <v>220</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>mudahan yg ngirim bukan si cepat atau si halu</t>
-        </is>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['mudahan', 'yg', 'ngirim', 'bukan', 'si', 'cepat', 'atau', 'si', 'halu']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['mudahan', 'ngirim', 'cepat', 'halu']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['mudah', 'ngirim', 'cepat', 'halu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17870</v>
+        <v>26543</v>
       </c>
       <c r="C28" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>si ibunya yg oon knp dia tinggal pergi anak perempuannya menyesal tak ada guna sdh tau buaya</t>
+          <t>keren</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['si', 'ibunya', 'yg', 'oon', 'knp', 'dia', 'tinggal', 'pergi', 'anak', 'perempuannya', 'menyesal', 'tak', 'ada', 'guna', 'sdh', 'tau', 'buaya']</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['ibunya', 'oon', 'knp', 'tinggal', 'pergi', 'anak', 'perempuannya', 'menyesal', 'buaya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['ibu', 'oon', 'knp', 'tinggal', 'pergi', 'anak', 'perempuan', 'sesal', 'buaya']</t>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['keren']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17871</v>
+        <v>26544</v>
       </c>
       <c r="C29" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>pilihan rakyat langsung jgn mimpi utk menurunkan pak jokowi spt suharto</t>
+          <t>sukma doank daffa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['pilihan', 'rakyat', 'langsung', 'jgn', 'mimpi', 'utk', 'menurunkan', 'pak', 'jokowi', 'spt', 'suharto']</t>
+          <t>['sukma', 'doank', 'daffa']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sukma', 'doang', 'daffa']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['pilihan', 'rakyat', 'langsung', 'mimpi', 'menurunkan', 'jokowi', 'spt', 'suharto']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['pilih', 'rakyat', 'langsung', 'mimpi', 'turun', 'jokowi', 'spt', 'suharto']</t>
+          <t>['sukma', 'doang', 'daffa']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['sukma', 'doang', 'daffa']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17872</v>
+        <v>26545</v>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>kalau yg seharusnya jadi panutan masyarakat tdk mampu memberi contoh yg baik maka ada baiknya anda belajar kpd yg</t>
+          <t>ri warga kls horreyy yg tdk paham akan hak dan kewajibannya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['kalau', 'yg', 'seharusnya', 'jadi', 'panutan', 'masyarakat', 'tdk', 'mampu', 'memberi', 'contoh', 'yg', 'baik', 'maka', 'ada', 'baiknya', 'anda', 'belajar', 'kpd', 'yg']</t>
+          <t>['ri', 'warga', 'kls', 'horreyy', 'yg', 'tdk', 'paham', 'akan', 'hak', 'dan', 'kewajibannya']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['ri', 'warga', 'kelas', 'horreyy', 'yang', 'tidak', 'paham', 'akan', 'hak', 'dan', 'kewajibannya']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['panutan', 'masyarakat', 'contoh', 'baiknya', 'belajar', 'kpd']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['panutan', 'masyarakat', 'contoh', 'baik', 'ajar', 'kpd']</t>
+          <t>['ri', 'warga', 'kelas', 'horreyy', 'paham', 'hak', 'kewajibannya']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['ri', 'warga', 'kelas', 'horreyy', 'paham', 'hak', 'wajib']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17873</v>
+        <v>26546</v>
       </c>
       <c r="C31" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ini sdh puncak hujan drainase mengapa tidak dipersiapkan laporan klasik</t>
+          <t>kalau bisa yang peetama mengapa harus yang kedua atau seterusnya</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ini', 'sdh', 'puncak', 'hujan', 'drainase', 'mengapa', 'tidak', 'dipersiapkan', 'laporan', 'klasik']</t>
+          <t>['kalau', 'bisa', 'yang', 'peetama', 'mengapa', 'harus', 'yang', 'kedua', 'atau', 'seterusnya']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kalau', 'bisa', 'yang', 'peetama', 'mengapa', 'harus', 'yang', 'kedua', 'atau', 'seterusnya']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['puncak', 'hujan', 'drainase', 'dipersiapkan', 'laporan', 'klasik']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['puncak', 'hujan', 'drainase', 'siap', 'lapor', 'klasik']</t>
+          <t>['peetama']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['peetama']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17874</v>
+        <v>26547</v>
       </c>
       <c r="C32" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>di pintu air manggarai ngecek sdh brp meter qubik air yg lewat</t>
+          <t>jaga persatuan dan kesatuan untuk menangkal perang hybrid</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['di', 'pintu', 'air', 'manggarai', 'ngecek', 'sdh', 'brp', 'meter', 'qubik', 'air', 'yg', 'lewat']</t>
+          <t>['jaga', 'persatuan', 'dan', 'kesatuan', 'untuk', 'menangkal', 'perang', 'hybrid']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['jaga', 'persatuan', 'dan', 'kesatuan', 'untuk', 'menangkal', 'perang', 'hybrid']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['pintu', 'air', 'manggarai', 'ngecek', 'brp', 'meter', 'qubik', 'air']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pintu', 'air', 'manggarai', 'ngecek', 'brp', 'meter', 'qubik', 'air']</t>
+          <t>['jaga', 'persatuan', 'kesatuan', 'menangkal', 'perang', 'hybrid']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['jaga', 'satu', 'satu', 'tangkal', 'perang', 'hybrid']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17875</v>
+        <v>26548</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>warsono fungsi pengawasannya di mana nothing action talking only pdip</t>
+          <t>warga masyarakat bayar pajak berhak mendapatkan layanan publik yg baik salah satunya infrastruktur mengapa ngamuk</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['warsono', 'fungsi', 'pengawasannya', 'di', 'mana', 'nothing', 'action', 'talking', 'only', 'pdip']</t>
+          <t>['warga', 'masyarakat', 'bayar', 'pajak', 'berhak', 'mendapatkan', 'layanan', 'publik', 'yg', 'baik', 'salah', 'satunya', 'infrastruktur', 'mengapa', 'ngamuk']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['warga', 'masyarakat', 'bayar', 'pajak', 'berhak', 'mendapatkan', 'layanan', 'publik', 'yang', 'baik', 'salah', 'satunya', 'infrastruktur', 'mengapa', 'mengamuk']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['warsono', 'fungsi', 'pengawasannya', 'nothing', 'action', 'talking', 'only', 'pdip']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['warsono', 'fungsi', 'awas', 'nothing', 'action', 'talking', 'only', 'pdip']</t>
+          <t>['warga', 'masyarakat', 'bayar', 'pajak', 'berhak', 'layanan', 'publik', 'salah', 'satunya', 'infrastruktur', 'mengamuk']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['warga', 'masyarakat', 'bayar', 'pajak', 'hak', 'layan', 'publik', 'salah', 'satu', 'infrastruktur', 'amuk']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17876</v>
+        <v>26549</v>
       </c>
       <c r="C34" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>telat peringatannya setelah bertahun dia berkoar ke seluruh indonesia dan ramai di media sosial selama ada pembiaran</t>
+          <t>dtt nrs tetap semangat</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['telat', 'peringatannya', 'setelah', 'bertahun', 'dia', 'berkoar', 'ke', 'seluruh', 'indonesia', 'dan', 'ramai', 'di', 'media', 'sosial', 'selama', 'ada', 'pembiaran']</t>
+          <t>['dtt', 'nrs', 'tetap', 'semangat']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dtt', 'nrs', 'tetap', 'semangat']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['telat', 'peringatannya', 'bertahun', 'berkoar', 'indonesia', 'ramai', 'media', 'sosial', 'pembiaran']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['telat', 'ingat', 'tahun', 'koar', 'indonesia', 'ramai', 'media', 'sosial', 'biar']</t>
+          <t>['dtt', 'nrs', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['dtt', 'nrs', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17877</v>
+        <v>26550</v>
       </c>
       <c r="C35" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>bibit ikannya sdh ditabur blom</t>
+          <t>aibon lewatt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['bibit', 'ikannya', 'sdh', 'ditabur', 'blom']</t>
+          <t>['aibon', 'lewatt']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['aibon', 'lewatt']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['bibit', 'ikannya', 'ditabur', 'blom']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['bibit', 'ikan', 'tabur', 'blom']</t>
+          <t>['aibon', 'lewatt']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['aibon', 'lewatt']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17878</v>
+        <v>26551</v>
       </c>
       <c r="C36" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mendingan dibuat jadi rth daripada ke depannya lebih parah</t>
+          <t>brp lama dari nanam hingga panen mba</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['mendingan', 'dibuat', 'jadi', 'rth', 'daripada', 'ke', 'depannya', 'lebih', 'parah']</t>
+          <t>['brp', 'lama', 'dari', 'nanam', 'hingga', 'panen', 'mba']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['berapa', 'lama', 'dari', 'nanam', 'hingga', 'panen', 'mbak']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['mendingan', 'rth', 'depannya', 'parah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['mending', 'rth', 'depan', 'parah']</t>
+          <t>['nanam', 'panen', 'mbak']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['nanam', 'panen', 'mbak']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17879</v>
+        <v>26552</v>
       </c>
       <c r="C37" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>sampai dibtitik ini anda org hebat dan teruslah menjadi orang yg hebat</t>
+          <t>selalu ada jln kalau ada kemauan mantaappp</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['sampai', 'dibtitik', 'ini', 'anda', 'org', 'hebat', 'dan', 'teruslah', 'menjadi', 'orang', 'yg', 'hebat']</t>
+          <t>['selalu', 'ada', 'jln', 'kalau', 'ada', 'kemauan', 'mantaappp']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['selalu', 'ada', 'jalan', 'kalau', 'ada', 'kemauan', 'mantaappp']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['dibtitik', 'org', 'hebat', 'teruslah', 'orang', 'hebat']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['dibtitik', 'org', 'hebat', 'terus', 'orang', 'hebat']</t>
+          <t>['jalan', 'kemauan', 'mantaappp']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['jalan', 'mau', 'mantaappp']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17880</v>
+        <v>26553</v>
       </c>
       <c r="C38" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>tuhan tambahkan hikmat dan kebijaksanaan kpd pemerintah dlm mengatasi semua masalah yg ada</t>
+          <t>kuntadhi mendingan ga usah diberitain org mabok</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['tuhan', 'tambahkan', 'hikmat', 'dan', 'kebijaksanaan', 'kpd', 'pemerintah', 'dlm', 'mengatasi', 'semua', 'masalah', 'yg', 'ada']</t>
+          <t>['kuntadhi', 'mendingan', 'ga', 'usah', 'diberitain', 'org', 'mabok']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kuntadhi', 'lebih, baik', 'tidak', 'usah', 'diberitakan', 'orang', 'mabuk']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['tuhan', 'tambahkan', 'hikmat', 'kebijaksanaan', 'kpd', 'pemerintah', 'dlm', 'mengatasi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['tuhan', 'tambah', 'hikmat', 'bijaksana', 'kpd', 'perintah', 'dlm', 'atas']</t>
+          <t>['kuntadhi', 'lebih, baik', 'diberitakan', 'orang', 'mabuk']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'lebih baik', 'berita', 'orang', 'mabuk']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17881</v>
+        <v>26554</v>
       </c>
       <c r="C39" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>anak tk juga paham itu tidak perlu penjelasan seorang gubernur daerah khusus ibukota</t>
+          <t>tandatangannya waktu lagi tidur</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['anak', 'tk', 'juga', 'paham', 'itu', 'tidak', 'perlu', 'penjelasan', 'seorang', 'gubernur', 'daerah', 'khusus', 'ibukota']</t>
+          <t>['tandatangannya', 'waktu', 'lagi', 'tidur']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['tandatangannya', 'waktu', 'lagi', 'tidur']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['anak', 'tk', 'paham', 'penjelasan', 'gubernur', 'daerah', 'khusus', 'ibukota']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['anak', 'tk', 'paham', 'jelas', 'gubernur', 'daerah', 'khusus', 'ibukota']</t>
+          <t>['tandatangannya', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['tandatangannya', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17882</v>
+        <v>26555</v>
       </c>
       <c r="C40" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>di sana lobangnya kurang banyak jadi air ngantre ke jalan</t>
+          <t>tni berbahagialah orang yang membawa damai</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['di', 'sana', 'lobangnya', 'kurang', 'banyak', 'jadi', 'air', 'ngantre', 'ke', 'jalan']</t>
+          <t>['tni', 'berbahagialah', 'orang', 'yang', 'membawa', 'damai']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tentara, nasional, indonesia', 'berbahagialah', 'orang', 'yang', 'membawa', 'damai']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['lobangnya', 'air', 'ngantre', 'jalan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['lobangnya', 'air', 'ngantre', 'jalan']</t>
+          <t>['tentara, nasional, indonesia', 'berbahagialah', 'orang', 'membawa', 'damai']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['tentara nasional indonesia', 'bahagia', 'orang', 'bawa', 'damai']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17883</v>
+        <v>26556</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hanya kk blm mencapai target ya</t>
+          <t>dtt syukurlah masih ada org yg berbaik hati</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['hanya', 'kk', 'blm', 'mencapai', 'target', 'ya']</t>
+          <t>['dtt', 'syukurlah', 'masih', 'ada', 'org', 'yg', 'berbaik', 'hati']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dtt', 'syukurlah', 'masih', 'ada', 'orang', 'yang', 'berbaik', 'hati']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['kk', 'blm', 'mencapai', 'target']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['kk', 'blm', 'capai', 'target']</t>
+          <t>['dtt', 'syukurlah', 'orang', 'berbaik', 'hati']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['dtt', 'syukur', 'orang', 'baik', 'hati']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17884</v>
+        <v>26557</v>
       </c>
       <c r="C42" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>geis kalipah  kpn mulai</t>
+          <t>agever btp malu ama diri sendiri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['geis', 'kalipah', 'kpn', 'mulai']</t>
+          <t>['agever', 'btp', 'malu', 'ama', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['agever', 'ahok', 'malu', 'sama', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['geis', 'kalipah', 'kpn']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['geis', 'kalipah', 'kpn']</t>
+          <t>['agever', 'ahok', 'malu']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['agever', 'ahok', 'malu']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17885</v>
+        <v>26558</v>
       </c>
       <c r="C43" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>polri tuhan memberi kesehatanimun tubuh yg prima dan memberkati para relawanpetugas  semoga cepat berlalu</t>
+          <t>mt pagi adminkalau yg vaksin pertama di mesjid istiqlal tgk yl urk tahap dua lokasinya di mana ya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['polri', 'tuhan', 'memberi', 'kesehatanimun', 'tubuh', 'yg', 'prima', 'dan', 'memberkati', 'para', 'relawanpetugas', 'semoga', 'cepat', 'berlalu']</t>
+          <t>['mt', 'pagi', 'adminkalau', 'yg', 'vaksin', 'pertama', 'di', 'mesjid', 'istiqlal', 'tgk', 'yl', 'urk', 'tahap', 'dua', 'lokasinya', 'di', 'mana', 'ya']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['mt', 'pagi', 'adminkalau', 'yang', 'vaksin', 'pertama', 'di', 'mesjid', 'istiqlal', 'tegak', 'yl', 'urk', 'tahap', 'dua', 'lokasinya', 'di', 'mana', 'ya']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['polri', 'tuhan', 'kesehatanimun', 'tubuh', 'prima', 'memberkati', 'relawanpetugas', 'semoga', 'cepat']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['polri', 'tuhan', 'kesehatanimun', 'tubuh', 'prima', 'kati', 'relawanpetugas', 'moga', 'cepat']</t>
+          <t>['mt', 'pagi', 'adminkalau', 'vaksin', 'mesjid', 'istiqlal', 'tegak', 'yl', 'urk', 'tahap', 'lokasinya']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['mt', 'pagi', 'adminkalau', 'vaksin', 'mesjid', 'istiqlal', 'tegak', 'yl', 'urk', 'tahap', 'lokasi']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17886</v>
+        <v>26559</v>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>hebat pak rudi sehat selalu</t>
+          <t>korupsi membuat pembangunan terhambat program sdh bagus pengawsan hrs ditingkatkan lagi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['hebat', 'pak', 'rudi', 'sehat', 'selalu']</t>
+          <t>['korupsi', 'membuat', 'pembangunan', 'terhambat', 'program', 'sdh', 'bagus', 'pengawsan', 'hrs', 'ditingkatkan', 'lagi']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['korupsi', 'membuat', 'pembangunan', 'terhambat', 'program', 'sudah', 'bagus', 'pengawsan', 'harus', 'ditingkatkan', 'lagi']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['hebat', 'rudi', 'sehat']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['hebat', 'rudi', 'sehat']</t>
+          <t>['korupsi', 'pembangunan', 'terhambat', 'program', 'bagus', 'pengawsan', 'ditingkatkan']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['korupsi', 'bangun', 'hambat', 'program', 'bagus', 'pengawsan', 'tingkat']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17887</v>
+        <v>26560</v>
       </c>
       <c r="C45" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>pembohonganpembodohan terencana yg mempermalukan diri sendiri dan pribadi yg didukungnya polemik foto gunung ged</t>
+          <t>ll ini baru prestasi setelah sekian lama tdk muncul  media</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['pembohonganpembodohan', 'terencana', 'yg', 'mempermalukan', 'diri', 'sendiri', 'dan', 'pribadi', 'yg', 'didukungnya', 'polemik', 'foto', 'gunung', 'ged']</t>
+          <t>['ll', 'ini', 'baru', 'prestasi', 'setelah', 'sekian', 'lama', 'tdk', 'muncul', 'media']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['ll', 'ini', 'baru', 'prestasi', 'setelah', 'sekian', 'lama', 'tidak', 'muncul', 'media']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['pembohonganpembodohan', 'terencana', 'mempermalukan', 'pribadi', 'didukungnya', 'polemik', 'foto', 'gunung', 'ged']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['pembohonganpembodohan', 'rencana', 'malu', 'pribadi', 'dukung', 'polemik', 'foto', 'gunung', 'ged']</t>
+          <t>['ll', 'prestasi', 'sekian', 'muncul', 'media']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['ll', 'prestasi', 'sekian', 'muncul', 'media']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17888</v>
+        <v>26561</v>
       </c>
       <c r="C46" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vaksin nusantara dr terawan butuh dukungan penuh dari pemerintah khususnya bapak presiden komentari vaks</t>
+          <t>bingunglah kalau ga punya hati melayani bangun sekilah gratis rumah sakit kasih beasiswa utk ank tdk ma</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['vaksin', 'nusantara', 'dr', 'terawan', 'butuh', 'dukungan', 'penuh', 'dari', 'pemerintah', 'khususnya', 'bapak', 'presiden', 'komentari', 'vaks']</t>
+          <t>['bingunglah', 'kalau', 'ga', 'punya', 'hati', 'melayani', 'bangun', 'sekilah', 'gratis', 'rumah', 'sakit', 'kasih', 'beasiswa', 'utk', 'ank', 'tdk', 'ma']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bingunglah', 'kalau', 'tidak', 'punya', 'hati', 'melayani', 'bangun', 'sekilah', 'gratis', 'rumah', 'sakit', 'kasih', 'beasiswa', 'untuk', 'anak', 'tidak', 'sama']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['vaksin', 'nusantara', 'dr', 'terawan', 'butuh', 'dukungan', 'penuh', 'pemerintah', 'presiden', 'komentari', 'vaks']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['vaksin', 'nusantara', 'dr', 'awan', 'butuh', 'dukung', 'penuh', 'perintah', 'presiden', 'komentar', 'vaks']</t>
+          <t>['bingunglah', 'hati', 'melayani', 'bangun', 'sekilah', 'gratis', 'rumah', 'sakit', 'kasih', 'beasiswa', 'anak']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['bingung', 'hati', 'layan', 'bangun', 'sek', 'gratis', 'rumah', 'sakit', 'kasih', 'beasiswa', 'anak']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17889</v>
+        <v>26562</v>
       </c>
       <c r="C47" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tiga kata salut dan hormat</t>
+          <t xml:space="preserve">rakyat hrs mendukung psi krn perwakilannya yg seharusnya diharap mewakili aspirasinya pd tertidur </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['tiga', 'kata', 'salut', 'dan', 'hormat']</t>
+          <t>['rakyat', 'hrs', 'mendukung', 'psi', 'krn', 'perwakilannya', 'yg', 'seharusnya', 'diharap', 'mewakili', 'aspirasinya', 'pd', 'tertidur']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rakyat', 'harus', 'mendukung', 'psi', 'karena', 'perwakilannya', 'yang', 'seharusnya', 'diharap', 'mewakili', 'aspirasinya', 'pada', 'tertidur']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['salut', 'hormat']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['salut', 'hormat']</t>
+          <t>['rakyat', 'mendukung', 'psi', 'perwakilannya', 'diharap', 'mewakili', 'aspirasinya', 'tertidur']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['rakyat', 'dukung', 'psi', 'wakil', 'harap', 'wakil', 'aspirasi', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17890</v>
+        <v>26563</v>
       </c>
       <c r="C48" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>sangat terpuji kembali berkarya pd keahliannya dan jadi berkat buat org lain</t>
+          <t>pekok</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['sangat', 'terpuji', 'kembali', 'berkarya', 'pd', 'keahliannya', 'dan', 'jadi', 'berkat', 'buat', 'org', 'lain']</t>
+          <t>['pekok']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['bodoh']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['terpuji', 'berkarya', 'pd', 'keahliannya', 'berkat', 'org']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['puji', 'karya', 'pd', 'ahli', 'berkat', 'org']</t>
+          <t>['bodoh']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['bodoh']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17891</v>
+        <v>26564</v>
       </c>
       <c r="C49" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>akan makin stresslah si yahya waloni tuhan sdh mengacaukan otaknya</t>
+          <t>tergoda</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['akan', 'makin', 'stresslah', 'si', 'yahya', 'waloni', 'tuhan', 'sdh', 'mengacaukan', 'otaknya']</t>
+          <t>['tergoda']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tergoda']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['stresslah', 'yahya', 'waloni', 'tuhan', 'mengacaukan', 'otaknya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['stresslah', 'yahya', 'waloni', 'tuhan', 'acau', 'otak']</t>
+          <t>['tergoda']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['goda']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17892</v>
+        <v>26565</v>
       </c>
       <c r="C50" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>mencintaiminginginkanhak milik org lain adlh dosa pelanggaran hukum taurat ke</t>
+          <t>ampethemin laku keras ntar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['mencintaiminginginkanhak', 'milik', 'org', 'lain', 'adlh', 'dosa', 'pelanggaran', 'hukum', 'taurat', 'ke']</t>
+          <t>['ampethemin', 'laku', 'keras', 'ntar']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['ampethemin', 'laku', 'keras', 'nanti']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['mencintaiminginginkanhak', 'milik', 'org', 'adlh', 'dosa', 'pelanggaran', 'hukum', 'taurat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['mencintaiminginginkanhak', 'milik', 'org', 'adlh', 'dosa', 'langgar', 'hukum', 'taurat']</t>
+          <t>['ampethemin', 'laku', 'keras']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['ampethemin', 'laku', 'keras']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17893</v>
+        <v>26566</v>
       </c>
       <c r="C51" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>miiriisss kapan pintarnya ya</t>
+          <t>yg penting kau tau isi hatiku</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['miiriisss', 'kapan', 'pintarnya', 'ya']</t>
+          <t>['yg', 'penting', 'kau', 'tau', 'isi', 'hatiku']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['yang', 'penting', 'kamu', 'tau', 'isi', 'hatiku']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['miiriisss', 'pintarnya']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['miiriisss', 'pintar']</t>
+          <t>['isi', 'hatiku']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['isi', 'hati']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17894</v>
+        <v>26567</v>
       </c>
       <c r="C52" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>pak presiden datang melayat luar biasa</t>
+          <t>kalau tidak bisa merawat jangan menyakiti</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['pak', 'presiden', 'datang', 'melayat', 'luar', 'biasa']</t>
+          <t>['kalau', 'tidak', 'bisa', 'merawat', 'jangan', 'menyakiti']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['kalau', 'tidak', 'bisa', 'merawat', 'jangan', 'menyakiti']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['presiden', 'melayat']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['presiden', 'layat']</t>
+          <t>['merawat', 'menyakiti']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['rawat', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17895</v>
+        <v>26568</v>
       </c>
       <c r="C53" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>zz terharu melihatnya sampe mrebes mili</t>
+          <t>ombak pengen salaman sm  de aja repot</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['zz', 'terharu', 'melihatnya', 'sampe', 'mrebes', 'mili']</t>
+          <t>['ombak', 'pengen', 'salaman', 'sm', 'de', 'aja', 'repot']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ombak', 'ingin', 'salaman', 'sama', 'deh', 'saja', 'repot']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['zz', 'terharu', 'sampe', 'mrebes', 'mili']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['zz', 'haru', 'sampe', 'mrebes', 'mil']</t>
+          <t>['ombak', 'salaman', 'deh', 'repot']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ombak', 'salam', 'deh', 'repot']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17896</v>
+        <v>26569</v>
       </c>
       <c r="C54" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> luar biasa</t>
+          <t>sebetulnya bisa periode kalau rakyat mendukung mari kita naikkan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['luar', 'biasa']</t>
+          <t>['sebetulnya', 'bisa', 'periode', 'kalau', 'rakyat', 'mendukung', 'mari', 'kita', 'naikkan']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sebenarnya', 'bisa', 'periode', 'kalau', 'rakyat', 'mendukung', 'mari', 'kita', 'naikan']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['periode', 'rakyat', 'mendukung', 'mari', 'naikan']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['periode', 'rakyat', 'dukung', 'mari', 'naik']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17897</v>
+        <v>26570</v>
       </c>
       <c r="C55" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>yg ditutupi kopiah cuma secuil jd pemikirannya gitu</t>
+          <t>tak tertahankan si aki rasa pengen diperhatiin sm pak jokowi akhirnya air ludah yg sd dibuang dijilat</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['yg', 'ditutupi', 'kopiah', 'cuma', 'secuil', 'jd', 'pemikirannya', 'gitu']</t>
+          <t>['tak', 'tertahankan', 'si', 'aki', 'rasa', 'pengen', 'diperhatiin', 'sm', 'pak', 'jokowi', 'akhirnya', 'air', 'ludah', 'yg', 'sd', 'dibuang', 'dijilat']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['tak', 'tertahankan', 'sih', 'aki', 'rasa', 'ingin', 'diperhatikan', 'sama', 'pak', 'jokowi', 'akhirnya', 'air', 'ludah', 'yang', 'sekolah, dasar', 'dibuang', 'dijilat']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['ditutupi', 'kopiah', 'secuil', 'pemikirannya', 'gitu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['tutup', 'kopiah', 'cuil', 'pikir', 'gitu']</t>
+          <t>['tertahankan', 'aki', 'diperhatikan', 'jokowi', 'air', 'ludah', 'sekolah, dasar', 'dibuang', 'dijilat']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['tahan', 'aki', 'perhati', 'jokowi', 'air', 'ludah', 'sekolah dasar', 'buang', 'jilat']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17898</v>
+        <v>26571</v>
       </c>
       <c r="C56" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>keren tuh bang kaosnya kalau sdh jadi boleh size  ya</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['keren', 'tuh', 'bang', 'kaosnya', 'kalau', 'sdh', 'jadi', 'boleh', 'size', 'ya']</t>
+          <t>['sama']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sama']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['keren', 'bang', 'kaosnya', 'size']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['keren', 'bang', 'kaos', 'size']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17899</v>
+        <v>26572</v>
       </c>
       <c r="C57" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>amin semangat ya mas hati yg gembira adlh obat</t>
+          <t>baru tiga hr yg lalu dari harco manggadua harga laptop naik</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['amin', 'semangat', 'ya', 'mas', 'hati', 'yg', 'gembira', 'adlh', 'obat']</t>
+          <t>['baru', 'tiga', 'hr', 'yg', 'lalu', 'dari', 'harco', 'manggadua', 'harga', 'laptop', 'naik']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['baru', 'tiga', 'hari', 'yang', 'lalu', 'dari', 'harco', 'manggadua', 'harga', 'laptop', 'naik']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['amin', 'semangat', 'mas', 'hati', 'gembira', 'adlh', 'obat']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['amin', 'semangat', 'mas', 'hati', 'gembira', 'adlh', 'obat']</t>
+          <t>['harco', 'manggadua', 'harga', 'laptop']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['harco', 'manggadua', 'harga', 'laptop']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17900</v>
+        <v>26573</v>
       </c>
       <c r="C58" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>bibit yg baik di tanam di manapun akan tumbuh dgn baik dr terawan putranto</t>
+          <t>partai pdip ke mana dan yg lainny fungsi pengawasan tdk jln sdh dikasih mainan jadi lupa kerja</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['bibit', 'yg', 'baik', 'di', 'tanam', 'di', 'manapun', 'akan', 'tumbuh', 'dgn', 'baik', 'dr', 'terawan', 'putranto']</t>
+          <t>['partai', 'pdip', 'ke', 'mana', 'dan', 'yg', 'lainny', 'fungsi', 'pengawasan', 'tdk', 'jln', 'sdh', 'dikasih', 'mainan', 'jadi', 'lupa', 'kerja']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['partai', 'partai, demokrasi, indonesia, perjuangan', 'ke', 'mana', 'dan', 'yang', 'lainny', 'fungsi', 'pengawasan', 'tidak', 'jalan', 'sudah', 'dikasih', 'mainan', 'jadi', 'lupa', 'kerja']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['bibit', 'tanam', 'manapun', 'tumbuh', 'dr', 'terawan', 'putranto']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['bibit', 'tanam', 'mana', 'tumbuh', 'dr', 'awan', 'putranto']</t>
+          <t>['partai', 'partai, demokrasi, indonesia, perjuangan', 'lainny', 'fungsi', 'pengawasan', 'jalan', 'dikasih', 'mainan', 'lupa', 'kerja']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['partai', 'partai demokrasi indonesia juang', 'lainny', 'fungsi', 'awas', 'jalan', 'kasih', 'main', 'lupa', 'kerja']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17901</v>
+        <v>26574</v>
       </c>
       <c r="C59" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>zz bohong itu kreatif ya bang</t>
+          <t>habis jabatan anies baswedan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['zz', 'bohong', 'itu', 'kreatif', 'ya', 'bang']</t>
+          <t>['habis', 'jabatan', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['habis', 'jabatan', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['zz', 'bohong', 'kreatif', 'bang']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['zz', 'bohong', 'kreatif', 'bang']</t>
+          <t>['habis', 'jabatan', 'anies', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['habis', 'jabat', 'anies', 'baswedan']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17902</v>
+        <v>26575</v>
       </c>
       <c r="C60" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sebaiknya begitu agar tidak merusak tatanan yg ada</t>
+          <t>kalo ga gitu namanya kelelep ditelan bumi ga ada pemberitaan penolakan programnya pakde</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['sebaiknya', 'begitu', 'agar', 'tidak', 'merusak', 'tatanan', 'yg', 'ada']</t>
+          <t>['kalo', 'ga', 'gitu', 'namanya', 'kelelep', 'ditelan', 'bumi', 'ga', 'ada', 'pemberitaan', 'penolakan', 'programnya', 'pakde']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kalau', 'tidak', 'begitu', 'namanya', 'kelelep', 'ditelan', 'bumi', 'tidak', 'ada', 'pemberitaan', 'penolakan', 'programnya', 'pakde']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['merusak', 'tatanan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['rusak', 'tatanan']</t>
+          <t>['namanya', 'kelelep', 'ditelan', 'bumi', 'pemberitaan', 'penolakan', 'programnya', 'pakde']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['nama', 'lelep', 'tel', 'bumi', 'berita', 'tolak', 'program', 'pakde']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17903</v>
+        <v>26576</v>
       </c>
       <c r="C61" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gaspol jgn kasih kendor para adlh org</t>
+          <t>tracking sentul</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['gaspol', 'jgn', 'kasih', 'kendor', 'para', 'adlh', 'org']</t>
+          <t>['tracking', 'sentul']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tracking', 'sentul']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['gaspol', 'kasih', 'kendor', 'adlh', 'org']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['gaspol', 'kasih', 'kendor', 'adlh', 'org']</t>
+          <t>['tracking', 'sentul']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['tracking', 'sentul']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17904</v>
+        <v>26577</v>
       </c>
       <c r="C62" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>haramnya  mn tdk memfitnah tdk menghasut dan tdk ngehoaks</t>
+          <t>smg jadi penunjuk jln utk dugaan yg lain spt kasus  dana covid</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['haramnya', 'mn', 'tdk', 'memfitnah', 'tdk', 'menghasut', 'dan', 'tdk', 'ngehoaks']</t>
+          <t>['smg', 'jadi', 'penunjuk', 'jln', 'utk', 'dugaan', 'yg', 'lain', 'spt', 'kasus', 'dana', 'covid']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
+          <t>['semoga', 'jadi', 'penunjuk', 'jalan', 'untuk', 'dugaan', 'yang', 'lain', 'surat, pemberitahuan, tahunan', 'kasus', 'dana', 'covid']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['haramnya', 'mn', 'memfitnah', 'menghasut', 'ngehoaks']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['haram', 'mn', 'fitnah', 'hasut', 'ngehoaks']</t>
+          <t>['semoga', 'penunjuk', 'jalan', 'dugaan', 'surat, pemberitahuan, tahunan', 'dana', 'covid']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['moga', 'tunjuk', 'jalan', 'duga', 'surat pemberitahuan tahun', 'dana', 'covid']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17905</v>
+        <v>26578</v>
       </c>
       <c r="C63" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>amin</t>
+          <t>polri moeldoko tak elok bahasanya siapa yg layak menegurnya emaknya yg pasti kalau dprdnya cicing wae</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['polri', 'moeldoko', 'tak', 'elok', 'bahasanya', 'siapa', 'yg', 'layak', 'menegurnya', 'emaknya', 'yg', 'pasti', 'kalau', 'dprdnya', 'cicing', 'wae']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kepolisian, republik, indonesia', 'moeldoko', 'tak', 'elok', 'bahasanya', 'siapa', 'yang', 'layak', 'menegurnya', 'emaknya', 'yang', 'pasti', 'kalau', 'dewan, perwakilan, rakyat, daerahnya', 'cicing', 'saja']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['amin']</t>
+          <t>['kepolisian, republik, indonesia', 'moeldoko', 'elok', 'bahasanya', 'layak', 'menegurnya', 'emaknya', 'dewan, perwakilan, rakyat, daerahnya', 'cicing']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'moeldoko', 'elok', 'bahasa', 'layak', 'tegur', 'emaknya', 'dewan wakil rakyat daerah', 'cicing']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17906</v>
+        <v>26579</v>
       </c>
       <c r="C64" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>hukum ditegakkan utk mendapatkan keadilan semoga keadilan itu bisa didapatkan</t>
+          <t>selalu ada harapan semoga amanah</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['hukum', 'ditegakkan', 'utk', 'mendapatkan', 'keadilan', 'semoga', 'keadilan', 'itu', 'bisa', 'didapatkan']</t>
+          <t>['selalu', 'ada', 'harapan', 'semoga', 'amanah']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['selalu', 'ada', 'harapan', 'semoga', 'amanah']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['hukum', 'ditegakkan', 'keadilan', 'semoga', 'keadilan', 'didapatkan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['hukum', 'tegak', 'adil', 'moga', 'adil', 'dapat']</t>
+          <t>['harapan', 'semoga', 'amanah']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['harap', 'moga', 'amanah']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17907</v>
+        <v>26580</v>
       </c>
       <c r="C65" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>bantu dari luar ya bang semoga sukses demi kebaikan god bless</t>
+          <t>ular berkaki dua bukan hanya kepala dia bisa merapat ke mana dia nyaman dan diagungkan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['bantu', 'dari', 'luar', 'ya', 'bang', 'semoga', 'sukses', 'demi', 'kebaikan', 'god', 'bless']</t>
+          <t>['ular', 'berkaki', 'dua', 'bukan', 'hanya', 'kepala', 'dia', 'bisa', 'merapat', 'ke', 'mana', 'dia', 'nyaman', 'dan', 'diagungkan']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['ular', 'berkaki', 'dua', 'bukan', 'hanya', 'kepala', 'dia', 'bisa', 'merapat', 'ke', 'mana', 'dia', 'nyaman', 'dan', 'diagungkan']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['bantu', 'bang', 'semoga', 'sukses', 'kebaikan', 'god', 'bless']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['bantu', 'bang', 'moga', 'sukses', 'baik', 'god', 'bless']</t>
+          <t>['ular', 'berkaki', 'kepala', 'merapat', 'nyaman', 'diagungkan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['ular', 'kak', 'kepala', 'rapat', 'nyaman', 'agung']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17908</v>
+        <v>26581</v>
       </c>
       <c r="C66" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>sampai tahun berapa tempat ini bebas banjir ya</t>
+          <t>sdh ketuaan otak hanya bisa fokus pd satu masalah pribadiny sj dimaklumi sj</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['sampai', 'tahun', 'berapa', 'tempat', 'ini', 'bebas', 'banjir', 'ya']</t>
+          <t>['sdh', 'ketuaan', 'otak', 'hanya', 'bisa', 'fokus', 'pd', 'satu', 'masalah', 'pribadiny', 'sj', 'dimaklumi', 'sj']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sudah', 'ketuaan', 'otak', 'hanya', 'bisa', 'fokus', 'pada', 'satu', 'masalah', 'pribadiny', 'saja', 'dimaklumi', 'saja']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['bebas', 'banjir']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['bebas', 'banjir']</t>
+          <t>['ketuaan', 'otak', 'fokus', 'pribadiny', 'dimaklumi']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ketua', 'otak', 'fokus', 'pribadiny', 'maklum']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17909</v>
+        <v>26582</v>
       </c>
       <c r="C67" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>tambah satu lagi bang</t>
+          <t>alaidid eq jongkok</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['tambah', 'satu', 'lagi', 'bang']</t>
+          <t>['alaidid', 'eq', 'jongkok']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['alaidid', 'eq', 'jongkok']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['bang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['bang']</t>
+          <t>['alaidid', 'eq', 'jongkok']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['alaidid', 'eq', 'jongkok']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17910</v>
+        <v>26583</v>
       </c>
       <c r="C68" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>hahahahaha kreatip</t>
+          <t>chen ae nixon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'kreatip']</t>
+          <t>['chen', 'ae', 'nixon']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['chen', 'saja', 'nixon']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'kreatip']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'kreatip']</t>
+          <t>['chen', 'nixon']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['chen', 'nixon']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17911</v>
+        <v>26584</v>
       </c>
       <c r="C69" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>surat protes masuk dulu baru sebulan kemudian ada oernyataan bahwa yg diprotes tidak tahu menahu sudahinum susu belum dek</t>
+          <t>id serasa  dunia lain</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['surat', 'protes', 'masuk', 'dulu', 'baru', 'sebulan', 'kemudian', 'ada', 'oernyataan', 'bahwa', 'yg', 'diprotes', 'tidak', 'tahu', 'menahu', 'sudahinum', 'susu', 'belum', 'dek']</t>
+          <t>['id', 'serasa', 'dunia', 'lain']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['id', 'serasa', 'dunia', 'lain']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['surat', 'protes', 'masuk', 'sebulan', 'oernyataan', 'diprotes', 'menahu', 'sudahinum', 'susu', 'dek']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['surat', 'protes', 'masuk', 'bulan', 'oernyataan', 'protes', 'nahu', 'sudahinum', 'susu', 'dek']</t>
+          <t>['id', 'serasa', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['id', 'serasa', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17912</v>
+        <v>26585</v>
       </c>
       <c r="C70" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>mantap bang</t>
+          <t>cuma segini doang</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['mantap', 'bang']</t>
+          <t>['cuma', 'segini', 'doang']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['cuma', 'segini', 'doang']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['mantap', 'bang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['mantap', 'bang']</t>
+          <t>['segini', 'doang']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['gin', 'doang']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17913</v>
+        <v>26586</v>
       </c>
       <c r="C71" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>partai mana yg mau mengusung</t>
+          <t>ayo media</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['partai', 'mana', 'yg', 'mau', 'mengusung']</t>
+          <t>['ayo', 'media']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ayo', 'media']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['partai', 'mengusung']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['partai', 'usung']</t>
+          <t>['ayo', 'media']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['ayo', 'media']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17914</v>
+        <v>26587</v>
       </c>
       <c r="C72" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>apa yg lo jual</t>
+          <t>ombak god bless</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['apa', 'yg', 'lo', 'jual']</t>
+          <t>['ombak', 'god', 'bless']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ombak', 'god', 'bless']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['lo', 'jual']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['lo', 'jual']</t>
+          <t>['ombak', 'god', 'bless']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['ombak', 'god', 'bless']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17915</v>
+        <v>26588</v>
       </c>
       <c r="C73" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kafirnw terapkan di sekolah keagamaan swasta tetapi tidak utk sekolah negeri sekolah negeri adlh milik ne</t>
+          <t>org terhina yg suka menghina</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['kafirnw', 'terapkan', 'di', 'sekolah', 'keagamaan', 'swasta', 'tetapi', 'tidak', 'utk', 'sekolah', 'negeri', 'sekolah', 'negeri', 'adlh', 'milik', 'ne']</t>
+          <t>['org', 'terhina', 'yg', 'suka', 'menghina']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['orang', 'terhina', 'yang', 'suka', 'menghina']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kafirnw', 'terapkan', 'sekolah', 'keagamaan', 'swasta', 'sekolah', 'negeri', 'sekolah', 'negeri', 'adlh', 'milik', 'ne']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kafirnw', 'terap', 'sekolah', 'agama', 'swasta', 'sekolah', 'negeri', 'sekolah', 'negeri', 'adlh', 'milik', 'ne']</t>
+          <t>['orang', 'terhina', 'suka', 'menghina']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['orang', 'hina', 'suka', 'hina']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17916</v>
+        <v>26589</v>
       </c>
       <c r="C74" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>karya rest in peace</t>
+          <t>namanya jg ank muda</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['karya', 'rest', 'in', 'peace']</t>
+          <t>['namanya', 'jg', 'ank', 'muda']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['namanya', 'juga', 'anak', 'muda']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['karya', 'rest', 'in', 'peace']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['karya', 'rest', 'in', 'peace']</t>
+          <t>['namanya', 'anak', 'muda']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['nama', 'anak', 'muda']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17917</v>
+        <v>26590</v>
       </c>
       <c r="C75" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>lebih baik hambalang dirongsokin lumayan hasilnya buat nambah bangun museum satu lagi agar generas</t>
+          <t>barangkali klb abal tdk akan terjadi kalau kepemimpinan yg sah tdk abal</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['lebih', 'baik', 'hambalang', 'dirongsokin', 'lumayan', 'hasilnya', 'buat', 'nambah', 'bangun', 'museum', 'satu', 'lagi', 'agar', 'generas']</t>
+          <t>['barangkali', 'klb', 'abal', 'tdk', 'akan', 'terjadi', 'kalau', 'kepemimpinan', 'yg', 'sah', 'tdk', 'abal']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['barangkali', 'klb', 'abal', 'tidak', 'akan', 'terjadi', 'kalau', 'kepemimpinan', 'yang', 'sah', 'tidak', 'abal']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['hambalang', 'dirongsokin', 'lumayan', 'hasilnya', 'nambah', 'bangun', 'museum', 'generas']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['hambalang', 'dirongsokin', 'lumayan', 'hasil', 'nambah', 'bangun', 'museum', 'generas']</t>
+          <t>['barangkali', 'klb', 'abal', 'kepemimpinan', 'sah', 'abal']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['barangkali', 'klb', 'abal', 'pimpin', 'sah', 'abal']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17918</v>
+        <v>26591</v>
       </c>
       <c r="C76" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>zz tunggu yg edan edan pada ga ada baru diusut</t>
+          <t>lumayan bikin pipi relax yg manyun mulu bc berita pensil</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['zz', 'tunggu', 'yg', 'edan', 'edan', 'pada', 'ga', 'ada', 'baru', 'diusut']</t>
+          <t>['lumayan', 'bikin', 'pipi', 'relax', 'yg', 'manyun', 'mulu', 'bc', 'berita', 'pensil']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['lumayan', 'bikin', 'pipi', 'relax', 'yang', 'manyun', 'mulu', 'baca', 'berita', 'pensil']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['zz', 'tunggu', 'edan', 'edan', 'diusut']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['zz', 'tunggu', 'edan', 'edan', 'usut']</t>
+          <t>['lumayan', 'pipi', 'relax', 'manyun', 'mulu', 'baca', 'berita', 'pensil']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['lumayan', 'pipi', 'relax', 'manyun', 'mulu', 'baca', 'berita', 'pensil']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17919</v>
+        <v>26592</v>
       </c>
       <c r="C77" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>zz ibu hadiiirrrrr</t>
+          <t>kurang anggaran ga berani jual saham beer anker</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['zz', 'ibu', 'hadiiirrrrr']</t>
+          <t>['kurang', 'anggaran', 'ga', 'berani', 'jual', 'saham', 'beer', 'anker']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kurang', 'anggaran', 'tidak', 'berani', 'jual', 'saham', 'bir', 'anker']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['zz', 'hadiiirrrrr']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['zz', 'hadiiirrrrr']</t>
+          <t>['anggaran', 'berani', 'jual', 'saham', 'bir', 'anker']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['anggar', 'berani', 'jual', 'saham', 'bir', 'anker']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17920</v>
+        <v>26593</v>
       </c>
       <c r="C78" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>pterawan always be  blessed for blessing</t>
+          <t xml:space="preserve">bupati santet menang krn santet kali </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['pterawan', 'always', 'be', 'blessed', 'for', 'blessing']</t>
+          <t>['bupati', 'santet', 'menang', 'krn', 'santet', 'kali']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bupati', 'santet', 'menang', 'karena', 'santet', 'kali']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['pterawan', 'always', 'be', 'blessed', 'for', 'blessing']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['pterawan', 'always', 'be', 'blessed', 'for', 'blessing']</t>
+          <t>['bupati', 'santet', 'menang', 'santet', 'kali']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bupati', 'santet', 'menang', 'santet', 'kali']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17921</v>
+        <v>26594</v>
       </c>
       <c r="C79" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>fungsi utamanya utk membajak sawah yg telah digantikan oleh mesin sementara dagingnya tidak laku diju</t>
+          <t>managementnya bgmn ini</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['fungsi', 'utamanya', 'utk', 'membajak', 'sawah', 'yg', 'telah', 'digantikan', 'oleh', 'mesin', 'sementara', 'dagingnya', 'tidak', 'laku', 'diju']</t>
+          <t>['managementnya', 'bgmn', 'ini']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['managementnya', 'bagaimana', 'ini']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['fungsi', 'utamanya', 'membajak', 'sawah', 'digantikan', 'mesin', 'dagingnya', 'laku', 'diju']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['fungsi', 'utama', 'bajak', 'sawah', 'ganti', 'mesin', 'daging', 'laku', 'diju']</t>
+          <t>['managementnya']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['managementnya']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17922</v>
+        <v>26595</v>
       </c>
       <c r="C80" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>layak pertanyaannya berani jika ia hebat</t>
+          <t>ri koq ga kelar ini masalah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['layak', 'pertanyaannya', 'berani', 'jika', 'ia', 'hebat']</t>
+          <t>['ri', 'koq', 'ga', 'kelar', 'ini', 'masalah']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['ri', 'kok', 'tidak', 'selesai', 'ini', 'masalah']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['layak', 'pertanyaannya', 'berani', 'hebat']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['layak', 'tanya', 'berani', 'hebat']</t>
+          <t>['ri', 'selesai']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ri', 'selesai']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17923</v>
+        <v>26596</v>
       </c>
       <c r="C81" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>bersyukur apabila dikasih senyum sm mas kaesang</t>
+          <t>di sana banyak ya mau kirim ke bulan pake si halu bisa ga</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['bersyukur', 'apabila', 'dikasih', 'senyum', 'sm', 'mas', 'kaesang']</t>
+          <t>['di', 'sana', 'banyak', 'ya', 'mau', 'kirim', 'ke', 'bulan', 'pake', 'si', 'halu', 'bisa', 'ga']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['di', 'sana', 'banyak', 'ya', 'mau', 'kirim', 'ke', 'bulan', 'pakai', 'sih', 'halu', 'bisa', 'tidak']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['bersyukur', 'dikasih', 'senyum', 'sm', 'mas', 'kaesang']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['syukur', 'kasih', 'senyum', 'sm', 'mas', 'kaesang']</t>
+          <t>['kirim', 'pakai', 'halu']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kirim', 'pakai', 'halu']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17924</v>
+        <v>26597</v>
       </c>
       <c r="C82" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ini org berpendidikan katanya</t>
+          <t>hari gini kepala daerah bicara santet santet bisa nyampe ke bulan tdk</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['ini', 'org', 'berpendidikan', 'katanya']</t>
+          <t>['hari', 'gini', 'kepala', 'daerah', 'bicara', 'santet', 'santet', 'bisa', 'nyampe', 'ke', 'bulan', 'tdk']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hari', 'begini', 'kepala', 'daerah', 'bicara', 'santet', 'santet', 'bisa', 'sampai', 'ke', 'bulan', 'tidak']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['org', 'berpendidikan']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['org', 'didik']</t>
+          <t>['kepala', 'daerah', 'bicara', 'santet', 'santet']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['kepala', 'daerah', 'bicara', 'santet', 'santet']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17925</v>
+        <v>26598</v>
       </c>
       <c r="C83" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>yg mengkritik umumnya para politikus yg notabene org berpendidikan dan paham hukum memngkritik seharusny</t>
+          <t>hmm sutradaranya sedang rekaman</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['yg', 'mengkritik', 'umumnya', 'para', 'politikus', 'yg', 'notabene', 'org', 'berpendidikan', 'dan', 'paham', 'hukum', 'memngkritik', 'seharusny']</t>
+          <t>['hmm', 'sutradaranya', 'sedang', 'rekaman']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['hem', 'sutradaranya', 'sedang', 'rekaman']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['mengkritik', 'politikus', 'notabene', 'org', 'berpendidikan', 'paham', 'hukum', 'memngkritik', 'seharusny']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['kritik', 'politikus', 'notabene', 'org', 'didik', 'paham', 'hukum', 'memngkritik', 'seharusny']</t>
+          <t>['hem', 'sutradaranya', 'rekaman']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['hem', 'sutradara', 'rekam']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17926</v>
+        <v>26599</v>
       </c>
       <c r="C84" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">bingung dan penasaran sejak kapan gunung gede pangrango kelihatan jelas dari jalan raya di pusat jakarta hebat </t>
+          <t>namanya juga keyakinan berbeda ibarat nada yg berbeda jika dirangkai dgn baik dpt mengasilkan harmoni yg indah</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['bingung', 'dan', 'penasaran', 'sejak', 'kapan', 'gunung', 'gede', 'pangrango', 'kelihatan', 'jelas', 'dari', 'jalan', 'raya', 'di', 'pusat', 'jakarta', 'hebat']</t>
+          <t>['namanya', 'juga', 'keyakinan', 'berbeda', 'ibarat', 'nada', 'yg', 'berbeda', 'jika', 'dirangkai', 'dgn', 'baik', 'dpt', 'mengasilkan', 'harmoni', 'yg', 'indah']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['namanya', 'juga', 'keyakinan', 'berbeda', 'ibarat', 'nada', 'yang', 'berbeda', 'jika', 'dirangkai', 'dengan', 'baik', 'dapat', 'mengasilkan', 'harmoni', 'yang', 'indah']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['bingung', 'penasaran', 'gunung', 'gede', 'pangrango', 'jalan', 'raya', 'pusat', 'jakarta', 'hebat']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['bingung', 'penasaran', 'gunung', 'gede', 'pangrango', 'jalan', 'raya', 'pusat', 'jakarta', 'hebat']</t>
+          <t>['namanya', 'keyakinan', 'berbeda', 'nada', 'berbeda', 'dirangkai', 'mengasilkan', 'harmoni', 'indah']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['nama', 'yakin', 'beda', 'nada', 'beda', 'rangkai', 'asil', 'harmoni', 'indah']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17927</v>
+        <v>26600</v>
       </c>
       <c r="C85" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ini narasi jadi membongkar borok borok sendiri</t>
+          <t>mvllestari biarkan makhluk hidup berkembang pada habitatnya jgn maksa krn egoisme ortu</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['ini', 'narasi', 'jadi', 'membongkar', 'borok', 'borok', 'sendiri']</t>
+          <t>['mvllestari', 'biarkan', 'makhluk', 'hidup', 'berkembang', 'pada', 'habitatnya', 'jgn', 'maksa', 'krn', 'egoisme', 'ortu']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['mvllestari', 'biarkan', 'makhluk', 'hidup', 'berkembang', 'pada', 'habitatnya', 'jangan', 'memaksa', 'karena', 'egoisme', 'orang, tua']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['narasi', 'membongkar', 'borok', 'borok']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['narasi', 'bongkar', 'borok', 'borok']</t>
+          <t>['mvllestari', 'biarkan', 'makhluk', 'hidup', 'berkembang', 'habitatnya', 'memaksa', 'egoisme', 'orang, tua']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['mvllestari', 'biar', 'makhluk', 'hidup', 'kembang', 'habitat', 'paksa', 'egoisme', 'orang tua']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17928</v>
+        <v>26601</v>
       </c>
       <c r="C86" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>sangat setuju ada skala prioritas seperti yg sering disampaikan pjokowi</t>
+          <t>numpang lewat</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['sangat', 'setuju', 'ada', 'skala', 'prioritas', 'seperti', 'yg', 'sering', 'disampaikan', 'pjokowi']</t>
+          <t>['numpang', 'lewat']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['menumpang', 'lewat']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['setuju', 'skala', 'prioritas', 'pjokowi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['tuju', 'skala', 'prioritas', 'pjokowi']</t>
+          <t>['menumpang']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['tumpang']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17929</v>
+        <v>26602</v>
       </c>
       <c r="C87" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>euphoria selama lima bulan maintenancenya ga paham akhirnya jadi rongsokan atau habis dijual utk ngar</t>
+          <t>ombak makin ke sini integritas mrk dipertanyakan ikut bermain</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['euphoria', 'selama', 'lima', 'bulan', 'maintenancenya', 'ga', 'paham', 'akhirnya', 'jadi', 'rongsokan', 'atau', 'habis', 'dijual', 'utk', 'ngar']</t>
+          <t>['ombak', 'makin', 'ke', 'sini', 'integritas', 'mrk', 'dipertanyakan', 'ikut', 'bermain']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['ombak', 'makin', 'ke', 'sini', 'integritas', 'mereka', 'dipertanyakan', 'ikut', 'bermain']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['euphoria', 'maintenancenya', 'paham', 'rongsokan', 'habis', 'dijual', 'ngar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['euphoria', 'maintenancenya', 'paham', 'rongsok', 'habis', 'jual', 'ngar']</t>
+          <t>['ombak', 'integritas', 'bermain']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ombak', 'integritas', 'main']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17930</v>
+        <v>26603</v>
       </c>
       <c r="C88" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>semoga kita bisa cepat keluar dari permasalahan ini doa uasaha maksimal campurtangan tuhan sempurna optimis</t>
+          <t>buseett daahh kaaihan bgt tuh kucing</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['semoga', 'kita', 'bisa', 'cepat', 'keluar', 'dari', 'permasalahan', 'ini', 'doa', 'uasaha', 'maksimal', 'campurtangan', 'tuhan', 'sempurna', 'optimis']</t>
+          <t>['buseett', 'daahh', 'kaaihan', 'bgt', 'tuh', 'kucing']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['buset', 'daahh', 'kaaihan', 'banget', 'itu', 'kucing']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['semoga', 'cepat', 'permasalahan', 'doa', 'uasaha', 'maksimal', 'campurtangan', 'tuhan', 'sempurna', 'optimis']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['moga', 'cepat', 'masalah', 'doa', 'uasaha', 'maksimal', 'campurtangan', 'tuhan', 'sempurna', 'optimis']</t>
+          <t>['buset', 'daahh', 'kaaihan', 'banget', 'kucing']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['buset', 'daahh', 'kaaihan', 'banget', 'kucing']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17931</v>
+        <v>26604</v>
       </c>
       <c r="C89" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>id amin</t>
+          <t>id hanya botol sprite kah utk wilayah ciracas jakarta timur ke mana mengirimnya</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['id', 'amin']</t>
+          <t>['id', 'hanya', 'botol', 'sprite', 'kah', 'utk', 'wilayah', 'ciracas', 'jakarta', 'timur', 'ke', 'mana', 'mengirimnya']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['id', 'hanya', 'botol', 'sprite', 'kah', 'untuk', 'wilayah', 'ciracas', 'jakarta', 'timur', 'ke', 'mana', 'mengirimnya']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['id', 'amin']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['id', 'amin']</t>
+          <t>['id', 'botol', 'sprite', 'kah', 'wilayah', 'ciracas', 'jakarta', 'timur', 'mengirimnya']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['id', 'botol', 'sprite', 'kah', 'wilayah', 'ciracas', 'jakarta', 'timur', 'kirim']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17932</v>
+        <v>26605</v>
       </c>
       <c r="C90" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>siap menghadang radikalis media</t>
+          <t>tertib itu menyenangkan</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['siap', 'menghadang', 'radikalis', 'media']</t>
+          <t>['tertib', 'itu', 'menyenangkan']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tertib', 'itu', 'menyenangkan']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['menghadang', 'radikalis', 'media']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['menghadang', 'radikal', 'media']</t>
+          <t>['tertib', 'menyenangkan']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tertib', 'senang']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17933</v>
+        <v>26606</v>
       </c>
       <c r="C91" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>penfanut paham bumi datar itu biasa bang</t>
+          <t>bahasa no way for negonego</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['penfanut', 'paham', 'bumi', 'datar', 'itu', 'biasa', 'bang']</t>
+          <t>['bahasa', 'no', 'way', 'for', 'negonego']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['bahasa', 'no', 'way', 'for', 'negonego']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['penfanut', 'paham', 'bumi', 'datar', 'bang']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['penfanut', 'paham', 'bumi', 'datar', 'bang']</t>
+          <t>['bahasa', 'no', 'way', 'for', 'negonego']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['bahasa', 'no', 'way', 'for', 'negonego']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17934</v>
+        <v>26607</v>
       </c>
       <c r="C92" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>otak rocky garong sdh ga bisa direvisi krn sdh dpl</t>
+          <t>muldoko paaling terdepan yg lain ketinggalaaaaaaan</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['otak', 'rocky', 'garong', 'sdh', 'ga', 'bisa', 'direvisi', 'krn', 'sdh', 'dpl']</t>
+          <t>['muldoko', 'paaling', 'terdepan', 'yg', 'lain', 'ketinggalaaaaaaan']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['muldoko', 'paaling', 'terdepan', 'yang', 'lain', 'ketinggalaaaaaaan']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['otak', 'rocky', 'garong', 'direvisi', 'dpl']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['otak', 'rocky', 'garong', 'revisi', 'dpl']</t>
+          <t>['muldoko', 'paaling', 'terdepan', 'ketinggalaaaaaaan']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['muldoko', 'paaling', 'depan', 'ketinggalaaaaaaan']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17935</v>
+        <v>26608</v>
       </c>
       <c r="C93" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ada malpraktek make it clear</t>
+          <t>santet agar jasil klb segera disahkan</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['ada', 'malpraktek', 'make', 'it', 'clear']</t>
+          <t>['santet', 'agar', 'jasil', 'klb', 'segera', 'disahkan']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['santet', 'agar', 'jasil', 'klb', 'segera', 'disahkan']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['malpraktek', 'make', 'it', 'clear']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['malpraktek', 'make', 'it', 'clear']</t>
+          <t>['santet', 'jasil', 'klb', 'disahkan']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['santet', 'jasil', 'klb', 'sah']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17936</v>
+        <v>26609</v>
       </c>
       <c r="C94" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>dsimpan di cipinang</t>
+          <t>rg maanntaaapp</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['dsimpan', 'di', 'cipinang']</t>
+          <t>['rg', 'maanntaaapp']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rg', 'maanntaaapp']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['dsimpan', 'cipinang']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['dsimpan', 'cipinang']</t>
+          <t>['rg', 'maanntaaapp']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['rg', 'maanntaaapp']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17937</v>
+        <v>26610</v>
       </c>
       <c r="C95" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>baiklah</t>
+          <t>terpaksa utk menutupi rasa malu sdh undur dari tni di politik bukan dunianya sebetulnya tepatnya bikin drama</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['baiklah']</t>
+          <t>['terpaksa', 'utk', 'menutupi', 'rasa', 'malu', 'sdh', 'undur', 'dari', 'tni', 'di', 'politik', 'bukan', 'dunianya', 'sebetulnya', 'tepatnya', 'bikin', 'drama']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['terpaksa', 'untuk', 'menutupi', 'rasa', 'malu', 'sudah', 'undur', 'dari', 'tentara, nasional, indonesia', 'di', 'politik', 'bukan', 'dunianya', 'sebenarnya', 'tepatnya', 'bikin', 'drama']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['baiklah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['baik']</t>
+          <t>['terpaksa', 'menutupi', 'malu', 'undur', 'tentara, nasional, indonesia', 'politik', 'dunianya', 'tepatnya', 'drama']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['paksa', 'tutup', 'malu', 'undur', 'tentara nasional indonesia', 'politik', 'dunia', 'tepat', 'drama']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17938</v>
+        <v>26611</v>
       </c>
       <c r="C96" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>kafirnw dibuang tuhan dan jatuhnya  sana prihatinnya banyak umat yg mendengar olok olokannya terbayang dong kualitas jamaahnya</t>
+          <t>yup</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['kafirnw', 'dibuang', 'tuhan', 'dan', 'jatuhnya', 'sana', 'prihatinnya', 'banyak', 'umat', 'yg', 'mendengar', 'olok', 'olokannya', 'terbayang', 'dong', 'kualitas', 'jamaahnya']</t>
+          <t>['yup']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['kafirnw', 'dibuang', 'tuhan', 'jatuhnya', 'prihatinnya', 'umat', 'mendengar', 'olok', 'olokannya', 'terbayang', 'kualitas', 'jamaahnya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['kafirnw', 'buang', 'tuhan', 'jatuh', 'prihatin', 'umat', 'dengar', 'olok', 'olok', 'bayang', 'kualitas', 'jamaah']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17939</v>
+        <v>26612</v>
       </c>
       <c r="C97" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sakti kembaran ya  buzzer nkri go go go cumungut</t>
+          <t>dikasih panggung selama ini jadi ngelunjak</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sakti', 'kembaran', 'ya', 'buzzer', 'nkri', 'go', 'go', 'go', 'cumungut']</t>
+          <t>['dikasih', 'panggung', 'selama', 'ini', 'jadi', 'ngelunjak']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
+          <t>['dikasih', 'panggung', 'selama', 'ini', 'jadi', 'ngelunjak']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['sakti', 'kembaran', 'buzzer', 'nkri', 'go', 'go', 'go', 'cumungut']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sakti', 'kembar', 'buzzer', 'nkri', 'go', 'go', 'go', 'cumungut']</t>
+          <t>['dikasih', 'panggung', 'ngelunjak']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['kasih', 'panggung', 'ngelunjak']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17940</v>
+        <v>26613</v>
       </c>
       <c r="C98" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>cakep bang</t>
+          <t>isu kadaluarsa</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['cakep', 'bang']</t>
+          <t>['isu', 'kadaluarsa']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['isu', 'kadaluarsa']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['cakep', 'bang']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['cakep', 'bang']</t>
+          <t>['isu', 'kadaluarsa']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['isu', 'kadaluarsa']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17941</v>
+        <v>26614</v>
       </c>
       <c r="C99" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>semakin banyak bicara semakin kelihatan kualitasnya</t>
+          <t>zz nakula avp</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['semakin', 'banyak', 'bicara', 'semakin', 'kelihatan', 'kualitasnya']</t>
+          <t>['zz', 'nakula', 'avp']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['hem', 'nakula', 'avp']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['bicara', 'kualitasnya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['bicara', 'kualitas']</t>
+          <t>['hem', 'nakula', 'avp']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['hem', 'nakula', 'avp']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17942</v>
+        <v>26615</v>
       </c>
       <c r="C100" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">polri ri mengacau atas nama agama merusak nilai keagamaannya </t>
+          <t>saat itu antasari ashar sdh diamankan duluan</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['polri', 'ri', 'mengacau', 'atas', 'nama', 'agama', 'merusak', 'nilai', 'keagamaannya']</t>
+          <t>['saat', 'itu', 'antasari', 'ashar', 'sdh', 'diamankan', 'duluan']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['saat', 'itu', 'antasari', 'asar', 'sudah', 'diamankan', 'lebih, dahulu']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['polri', 'ri', 'mengacau', 'nama', 'agama', 'merusak', 'nilai', 'keagamaannya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['polri', 'ri', 'acau', 'nama', 'agama', 'rusak', 'nilai', 'agama']</t>
+          <t>['antasari', 'asar', 'diamankan', 'lebih, dahulu']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['antasari', 'asar', 'aman', 'lebih dahulu']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17943</v>
+        <v>26616</v>
       </c>
       <c r="C101" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>nixon polri caper</t>
+          <t>biasa saja</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['nixon', 'polri', 'caper']</t>
+          <t>['biasa', 'saja']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['biasa', 'saja']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['nixon', 'polri', 'caper']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['nixon', 'polri', 'caper']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
